--- a/DbLayouts/L4-批次作業/InsuComm.xlsx
+++ b/DbLayouts/L4-批次作業/InsuComm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6292A1-5CCB-4E2B-8C96-581F48FF1EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA7224-473D-4E0D-AE40-AE62BFB78F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,20 @@
     <sheet name="提回" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="209">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -752,13 +761,29 @@
   </si>
   <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>Y:已產生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒體碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-05 智偉新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1055,6 +1080,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1067,50 +1134,8 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1451,13 +1476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1468,11 +1493,11 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
@@ -1483,9 +1508,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="8" t="s">
         <v>99</v>
       </c>
@@ -1496,11 +1521,11 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="12" t="s">
         <v>74</v>
       </c>
@@ -1511,51 +1536,51 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="31" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -1596,7 +1621,7 @@
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -1617,7 +1642,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1635,7 +1660,7 @@
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1653,7 +1678,7 @@
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1671,7 +1696,7 @@
       </c>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1689,7 +1714,7 @@
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1707,7 +1732,7 @@
       </c>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>8</v>
       </c>
@@ -1725,7 +1750,7 @@
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1743,7 +1768,7 @@
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1761,7 +1786,7 @@
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1779,7 +1804,7 @@
       </c>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1797,7 +1822,7 @@
       </c>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1815,7 +1840,7 @@
       </c>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1833,7 +1858,7 @@
       </c>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1853,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>16</v>
       </c>
@@ -1871,7 +1896,7 @@
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>17</v>
       </c>
@@ -1889,7 +1914,7 @@
       </c>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>18</v>
       </c>
@@ -1907,7 +1932,7 @@
       </c>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>19</v>
       </c>
@@ -1925,7 +1950,7 @@
       </c>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>20</v>
       </c>
@@ -1943,7 +1968,7 @@
       </c>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>21</v>
       </c>
@@ -1961,7 +1986,7 @@
       </c>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>22</v>
       </c>
@@ -1979,7 +2004,7 @@
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>23</v>
       </c>
@@ -1997,7 +2022,7 @@
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>24</v>
       </c>
@@ -2015,7 +2040,7 @@
       </c>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>25</v>
       </c>
@@ -2033,7 +2058,7 @@
       </c>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>26</v>
       </c>
@@ -2051,7 +2076,7 @@
       </c>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>27</v>
       </c>
@@ -2069,73 +2094,97 @@
       </c>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>28</v>
       </c>
-      <c r="B36" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>51</v>
+      <c r="B36" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="21"/>
-      <c r="G36" s="26"/>
-    </row>
-    <row r="37" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="E36" s="21">
+        <v>1</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="21">
-        <v>6</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="E37" s="21"/>
       <c r="G37" s="26"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A38" s="19">
         <v>30</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="E38" s="21">
+        <v>6</v>
+      </c>
       <c r="G38" s="26"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A39" s="19">
         <v>31</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="19">
+        <v>32</v>
+      </c>
+      <c r="B40" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C40" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D40" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E40" s="21">
         <v>6</v>
       </c>
-      <c r="G39" s="26"/>
+      <c r="G40" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2162,7 +2211,7 @@
       <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -2170,7 +2219,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2181,7 +2230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>64</v>
       </c>
@@ -2192,7 +2241,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -2218,7 +2267,7 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -2231,436 +2280,436 @@
     <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8" thickBot="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="31">
         <v>10</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="31">
         <v>0</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="31">
         <v>6</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="34" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="30" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="31">
         <v>6</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="31">
         <f>G2</f>
         <v>6</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="31">
         <f>E3+F3</f>
         <v>12</v>
       </c>
-      <c r="H3" s="36"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="35">
+      <c r="H3" s="32"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="31">
         <v>1</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="31">
         <f t="shared" ref="F4:F16" si="0">G3</f>
         <v>12</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="31">
         <f t="shared" ref="G4:G16" si="1">E4+F4</f>
         <v>13</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="31">
         <v>9</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="31">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="31">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="35">
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="31">
         <v>9</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="31">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="31">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="35">
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="31">
         <v>1</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="31">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="31">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="31">
         <v>1</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="31">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="31">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="31">
         <v>1</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="31">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="31">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="31">
         <v>1</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="31">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="31">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="31">
         <v>5</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="31">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="31">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H11" s="36"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="35">
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="31">
         <v>9</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="31">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="31">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="35">
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="35" t="s">
+      <c r="D13" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="31">
         <v>9</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="31">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G13" s="31">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="35">
+      <c r="H13" s="32"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="31">
         <v>1</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="31">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="G14" s="35">
+      <c r="G14" s="31">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H14" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="31">
         <v>1</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="31">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="31">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="31">
         <v>1</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="31">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="31">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="32" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2674,11 +2723,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F9E9A1-501E-4B72-9FAF-CC6ADC8CBFAB}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
@@ -2686,325 +2735,325 @@
     <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="41" t="s">
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="42">
+      <c r="D2" s="37">
         <v>874</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="38" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="37">
         <v>1</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="38" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="38" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="37" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="37" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="37" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="37" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="37">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="37" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="41" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="37" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="38" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="37" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="37" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="37" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="37" t="s">
         <v>204</v>
       </c>
     </row>

--- a/DbLayouts/L4-批次作業/InsuComm.xlsx
+++ b/DbLayouts/L4-批次作業/InsuComm.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA7224-473D-4E0D-AE40-AE62BFB78F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="8472" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="提出" sheetId="3" r:id="rId3"/>
     <sheet name="提回" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="219">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -99,691 +98,731 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>BatchNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuType</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuSignDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuredName</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuredAddr</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuredTeleph</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuStartDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuEndDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuPrem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommRate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commision</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotInsuPrem</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotComm</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecvSeq</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChargeDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacmNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireOfficer</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpName</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DueAmt</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>被保險人地址</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>被保險人電話</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuYearMonth</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManagerCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuComm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>建檔人員</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新日期時間</t>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMALD</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>insuYearMonthRng</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NowInsuNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL4606A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">InsuYearMonth &gt;= ,AND InsuYearMonth &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuYearMonth = , AND CommDate &gt;= , AND CommDate &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NowInsuNo ASC, InsuCate ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuCate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金媒體檔序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫入檔之排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuCommSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuYearMonth,InsuCommSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月份</t>
+  </si>
+  <si>
+    <t>經紀人代號</t>
+  </si>
+  <si>
+    <t>保單號碼</t>
+  </si>
+  <si>
+    <t>批號</t>
+  </si>
+  <si>
+    <t>險別</t>
+  </si>
+  <si>
+    <t>簽單日期</t>
+  </si>
+  <si>
+    <t>被保險人</t>
+  </si>
+  <si>
+    <t>起保日期</t>
+  </si>
+  <si>
+    <t>到期日期</t>
+  </si>
+  <si>
+    <t>險種</t>
+  </si>
+  <si>
+    <t>保費</t>
+  </si>
+  <si>
+    <t>佣金率</t>
+  </si>
+  <si>
+    <t>佣金</t>
+  </si>
+  <si>
+    <t>合計保費</t>
+  </si>
+  <si>
+    <t>合計佣金</t>
+  </si>
+  <si>
+    <t>收件號碼</t>
+  </si>
+  <si>
+    <t>收費日期</t>
+  </si>
+  <si>
+    <t>佣金日期</t>
+  </si>
+  <si>
+    <t>戶號</t>
+  </si>
+  <si>
+    <t>額度</t>
+  </si>
+  <si>
+    <t>火險服務</t>
+  </si>
+  <si>
+    <t>統一編號</t>
+  </si>
+  <si>
+    <t>員工姓名</t>
+  </si>
+  <si>
+    <t>應領金額</t>
+  </si>
+  <si>
+    <t>Key ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnglishColName</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseColName</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posision</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesId</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工Id</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>FireInsuMonth</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險年月</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnA</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotCommA</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>總佣金</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotCommB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnC</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnD</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnE</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>筆數</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotFee</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>總保費</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotCommC</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnF</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnG</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnH</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>逗號相隔</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險佣金媒體檔 LN$CMTP</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>874-B1.txt</t>
+  </si>
+  <si>
+    <t>範例</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMT01</t>
+  </si>
+  <si>
+    <t>VARCHAR2(3 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">經紀人代號  </t>
+  </si>
+  <si>
+    <t>CMT02</t>
+  </si>
+  <si>
+    <t>VARCHAR2(20 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">保單號碼    </t>
+  </si>
+  <si>
+    <t>2808FEP0Z00147</t>
+  </si>
+  <si>
+    <t>CMT03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">批號        </t>
+  </si>
+  <si>
+    <t>2809FEE0Z00015</t>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMT04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">險別        </t>
+  </si>
+  <si>
+    <t>CMT05</t>
+  </si>
+  <si>
+    <t>VARCHAR2(8 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">簽單日期    </t>
+  </si>
+  <si>
+    <t>20200326</t>
+  </si>
+  <si>
+    <t>CMT06</t>
+  </si>
+  <si>
+    <t>VARCHAR2(60 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">被保險人    </t>
+  </si>
+  <si>
+    <t>俊宏</t>
+  </si>
+  <si>
+    <t>CMT07</t>
+  </si>
+  <si>
+    <t>被保險人地址</t>
+  </si>
+  <si>
+    <t>台中市潭子區勝利六街５９號</t>
+  </si>
+  <si>
+    <t>CMT08</t>
+  </si>
+  <si>
+    <t>被保險人電話</t>
+  </si>
+  <si>
+    <t>0425327215</t>
+  </si>
+  <si>
+    <t>CMT09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">起保日期    </t>
+  </si>
+  <si>
+    <t>CMT10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">到期日期    </t>
+  </si>
+  <si>
+    <t>20200507</t>
+  </si>
+  <si>
+    <t>CMT11</t>
+  </si>
+  <si>
+    <t>VARCHAR2(4 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">險種        </t>
+  </si>
+  <si>
+    <t>CMT12</t>
+  </si>
+  <si>
+    <t>VARCHAR2(11 CHAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保費        </t>
+  </si>
+  <si>
+    <t>00000000030</t>
+  </si>
+  <si>
+    <t>CMT13</t>
+  </si>
+  <si>
+    <t>VARCHAR2(5 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">佣金率      </t>
+  </si>
+  <si>
+    <t>16.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT14 </t>
+  </si>
+  <si>
+    <t>VARCHAR2(11 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">佣金    </t>
+  </si>
+  <si>
+    <t>00000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT17 </t>
+  </si>
+  <si>
+    <t>VARCHAR2(14 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2807FEP0000644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT18 </t>
+  </si>
+  <si>
+    <t>20200407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT19 </t>
+  </si>
+  <si>
+    <t>20200504</t>
+  </si>
+  <si>
+    <t>LMSACN</t>
+  </si>
+  <si>
+    <t>VARCHAR2(7 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人戶號</t>
+  </si>
+  <si>
+    <t>1325618</t>
+  </si>
+  <si>
+    <t>LMSAPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">額度編號  </t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Y:已產生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒體碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-05 智偉新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NowInsuNo ASC, InsuCate ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFireOfficer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FireOfficer = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpId</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>findEmpId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EmpId = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>火險佣金檔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BatchNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuSignDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuredName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuredAddr</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuredTeleph</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuStartDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuEndDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuPrem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommRate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commision</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotInsuPrem</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotComm</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>RecvSeq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChargeDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacmNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireOfficer</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpName</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DueAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>被保險人地址</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>被保險人電話</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuYearMonth</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ManagerCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuComm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>建檔人員</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>最後更新人員</t>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpId</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECIMALD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>insuYearMonthRng</t>
+    <t>InsuYearMonth ASC, NowInsuNo ASC, InsuCate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>NowInsuNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL4606A</t>
+    <t>InsuYearMonth ASC, NowInsuNo ASC, InsuCate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">InsuYearMonth &gt;= ,AND InsuYearMonth &lt;= </t>
+    <t>InsuYearMonth ASC, NowInsuNo ASC, InsuCate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuYearMonth = , AND CommDate &gt;= , AND CommDate &lt;=</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NowInsuNo ASC, InsuCate ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuCate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>佣金媒體檔序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寫入檔之排序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuCommSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuYearMonth,InsuCommSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年月份</t>
-  </si>
-  <si>
-    <t>經紀人代號</t>
-  </si>
-  <si>
-    <t>保單號碼</t>
-  </si>
-  <si>
-    <t>批號</t>
-  </si>
-  <si>
-    <t>險別</t>
-  </si>
-  <si>
-    <t>簽單日期</t>
-  </si>
-  <si>
-    <t>被保險人</t>
-  </si>
-  <si>
-    <t>起保日期</t>
-  </si>
-  <si>
-    <t>到期日期</t>
-  </si>
-  <si>
-    <t>險種</t>
-  </si>
-  <si>
-    <t>保費</t>
-  </si>
-  <si>
-    <t>佣金率</t>
-  </si>
-  <si>
-    <t>佣金</t>
-  </si>
-  <si>
-    <t>合計保費</t>
-  </si>
-  <si>
-    <t>合計佣金</t>
-  </si>
-  <si>
-    <t>收件號碼</t>
-  </si>
-  <si>
-    <t>收費日期</t>
-  </si>
-  <si>
-    <t>佣金日期</t>
-  </si>
-  <si>
-    <t>戶號</t>
-  </si>
-  <si>
-    <t>額度</t>
-  </si>
-  <si>
-    <t>火險服務</t>
-  </si>
-  <si>
-    <t>統一編號</t>
-  </si>
-  <si>
-    <t>員工姓名</t>
-  </si>
-  <si>
-    <t>應領金額</t>
-  </si>
-  <si>
-    <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnglishColName</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChineseColName</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Posision</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalesId</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工Id</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>FireInsuMonth</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險年月</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnA</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotCommA</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>總佣金</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotCommB</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnB</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnC</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnD</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnE</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>筆數</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotFee</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>總保費</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotCommC</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnF</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnG</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnH</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>逗號相隔</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險佣金媒體檔 LN$CMTP</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>874-B1.txt</t>
-  </si>
-  <si>
-    <t>範例</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMT01</t>
-  </si>
-  <si>
-    <t>VARCHAR2(3 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">經紀人代號  </t>
-  </si>
-  <si>
-    <t>CMT02</t>
-  </si>
-  <si>
-    <t>VARCHAR2(20 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">保單號碼    </t>
-  </si>
-  <si>
-    <t>2808FEP0Z00147</t>
-  </si>
-  <si>
-    <t>CMT03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">批號        </t>
-  </si>
-  <si>
-    <t>2809FEE0Z00015</t>
-  </si>
-  <si>
-    <t>??</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMT04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">險別        </t>
-  </si>
-  <si>
-    <t>CMT05</t>
-  </si>
-  <si>
-    <t>VARCHAR2(8 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">簽單日期    </t>
-  </si>
-  <si>
-    <t>20200326</t>
-  </si>
-  <si>
-    <t>CMT06</t>
-  </si>
-  <si>
-    <t>VARCHAR2(60 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">被保險人    </t>
-  </si>
-  <si>
-    <t>俊宏</t>
-  </si>
-  <si>
-    <t>CMT07</t>
-  </si>
-  <si>
-    <t>被保險人地址</t>
-  </si>
-  <si>
-    <t>台中市潭子區勝利六街５９號</t>
-  </si>
-  <si>
-    <t>CMT08</t>
-  </si>
-  <si>
-    <t>被保險人電話</t>
-  </si>
-  <si>
-    <t>0425327215</t>
-  </si>
-  <si>
-    <t>CMT09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">起保日期    </t>
-  </si>
-  <si>
-    <t>CMT10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">到期日期    </t>
-  </si>
-  <si>
-    <t>20200507</t>
-  </si>
-  <si>
-    <t>CMT11</t>
-  </si>
-  <si>
-    <t>VARCHAR2(4 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">險種        </t>
-  </si>
-  <si>
-    <t>CMT12</t>
-  </si>
-  <si>
-    <t>VARCHAR2(11 CHAR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保費        </t>
-  </si>
-  <si>
-    <t>00000000030</t>
-  </si>
-  <si>
-    <t>CMT13</t>
-  </si>
-  <si>
-    <t>VARCHAR2(5 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">佣金率      </t>
-  </si>
-  <si>
-    <t>16.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT14 </t>
-  </si>
-  <si>
-    <t>VARCHAR2(11 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">佣金    </t>
-  </si>
-  <si>
-    <t>00000000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT17 </t>
-  </si>
-  <si>
-    <t>VARCHAR2(14 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2807FEP0000644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT18 </t>
-  </si>
-  <si>
-    <t>20200407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT19 </t>
-  </si>
-  <si>
-    <t>20200504</t>
-  </si>
-  <si>
-    <t>LMSACN</t>
-  </si>
-  <si>
-    <t>VARCHAR2(7 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款人戶號</t>
-  </si>
-  <si>
-    <t>1325618</t>
-  </si>
-  <si>
-    <t>LMSAPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">額度編號  </t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>Y:已產生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediaCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>媒體碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-11-05 智偉新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1140,7 +1179,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1231,23 +1270,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1283,23 +1305,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1475,14 +1480,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1493,26 +1498,26 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1521,13 +1526,13 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="45" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1536,7 +1541,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="42" t="s">
         <v>10</v>
       </c>
@@ -1547,7 +1552,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1563,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
@@ -1569,7 +1574,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="42" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1585,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="15" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1603,273 +1608,273 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="19">
         <v>1</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" s="21">
         <v>6</v>
       </c>
       <c r="F9" s="19"/>
     </row>
-    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="19">
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E10" s="21">
         <v>6</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" s="21">
         <v>3</v>
       </c>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="21">
         <v>20</v>
       </c>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="19">
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="21">
         <v>20</v>
       </c>
       <c r="F13" s="19"/>
     </row>
-    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="21">
         <v>2</v>
       </c>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E15" s="21">
         <v>8</v>
       </c>
       <c r="F15" s="19"/>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="19">
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="21">
         <v>60</v>
       </c>
       <c r="F16" s="22"/>
     </row>
-    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="19">
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="21">
         <v>60</v>
       </c>
       <c r="F17" s="22"/>
     </row>
-    <row r="18" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="19">
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E18" s="21">
         <v>20</v>
       </c>
       <c r="F18" s="22"/>
     </row>
-    <row r="19" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="19">
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E19" s="21">
         <v>8</v>
       </c>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="19">
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E20" s="21">
         <v>8</v>
       </c>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" s="19">
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="21">
         <v>2</v>
       </c>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="19">
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="21">
         <v>14</v>
       </c>
       <c r="F22" s="22"/>
     </row>
-    <row r="23" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" s="19">
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E23" s="21">
         <v>5</v>
@@ -1878,308 +1883,308 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" s="19">
         <v>16</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E24" s="21">
         <v>14</v>
       </c>
       <c r="F24" s="22"/>
     </row>
-    <row r="25" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="19">
         <v>17</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E25" s="21">
         <v>14</v>
       </c>
       <c r="F25" s="22"/>
     </row>
-    <row r="26" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" s="19">
         <v>18</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E26" s="21">
         <v>14</v>
       </c>
       <c r="F26" s="22"/>
     </row>
-    <row r="27" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" s="19">
         <v>19</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="21">
         <v>14</v>
       </c>
       <c r="F27" s="22"/>
     </row>
-    <row r="28" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="19">
         <v>20</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E28" s="21">
         <v>8</v>
       </c>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="19">
         <v>21</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E29" s="21">
         <v>8</v>
       </c>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="19">
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E30" s="21">
         <v>7</v>
       </c>
       <c r="F30" s="22"/>
     </row>
-    <row r="31" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="19">
         <v>23</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E31" s="21">
         <v>3</v>
       </c>
       <c r="F31" s="22"/>
     </row>
-    <row r="32" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="19">
         <v>24</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E32" s="21">
         <v>6</v>
       </c>
       <c r="F32" s="22"/>
     </row>
-    <row r="33" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" s="19">
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E33" s="21">
         <v>10</v>
       </c>
       <c r="F33" s="22"/>
     </row>
-    <row r="34" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" s="19">
         <v>26</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E34" s="21">
         <v>20</v>
       </c>
       <c r="F34" s="22"/>
     </row>
-    <row r="35" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" s="19">
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E35" s="21">
         <v>14</v>
       </c>
       <c r="F35" s="22"/>
     </row>
-    <row r="36" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" s="19">
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" s="21">
         <v>1</v>
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="19">
         <v>29</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>50</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>52</v>
       </c>
       <c r="E37" s="21"/>
       <c r="G37" s="26"/>
     </row>
-    <row r="38" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" s="19">
         <v>30</v>
       </c>
       <c r="B38" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>55</v>
       </c>
       <c r="E38" s="21">
         <v>6</v>
       </c>
       <c r="G38" s="26"/>
     </row>
-    <row r="39" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" s="19">
         <v>31</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="E39" s="21"/>
       <c r="G39" s="26"/>
     </row>
-    <row r="40" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" s="19">
         <v>32</v>
       </c>
       <c r="B40" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="23" t="s">
         <v>59</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>61</v>
       </c>
       <c r="E40" s="21">
         <v>6</v>
@@ -2203,15 +2208,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -2219,7 +2224,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2230,26 +2235,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2260,14 +2298,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BD49F3A-0A25-47D8-84CC-691889A58AEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -2280,44 +2318,44 @@
     <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E2" s="31">
         <v>10</v>
@@ -2330,21 +2368,21 @@
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="30" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E3" s="31">
         <v>6</v>
@@ -2359,18 +2397,18 @@
       </c>
       <c r="H3" s="32"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E4" s="31">
         <v>1</v>
@@ -2384,21 +2422,21 @@
         <v>13</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E5" s="31">
         <v>9</v>
@@ -2413,18 +2451,18 @@
       </c>
       <c r="H5" s="32"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E6" s="31">
         <v>9</v>
@@ -2439,18 +2477,18 @@
       </c>
       <c r="H6" s="32"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E7" s="31">
         <v>1</v>
@@ -2464,21 +2502,21 @@
         <v>32</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="31">
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E8" s="31">
         <v>1</v>
@@ -2492,21 +2530,21 @@
         <v>33</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E9" s="31">
         <v>1</v>
@@ -2520,21 +2558,21 @@
         <v>34</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E10" s="31">
         <v>1</v>
@@ -2548,21 +2586,21 @@
         <v>35</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="31">
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E11" s="31">
         <v>5</v>
@@ -2577,18 +2615,18 @@
       </c>
       <c r="H11" s="32"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E12" s="31">
         <v>9</v>
@@ -2603,18 +2641,18 @@
       </c>
       <c r="H12" s="32"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" s="31">
         <v>9</v>
@@ -2629,18 +2667,18 @@
       </c>
       <c r="H13" s="32"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E14" s="31">
         <v>1</v>
@@ -2654,21 +2692,21 @@
         <v>59</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="31">
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E15" s="31">
         <v>1</v>
@@ -2682,21 +2720,21 @@
         <v>60</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="31">
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="31">
         <v>1</v>
@@ -2710,7 +2748,7 @@
         <v>61</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2720,14 +2758,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F9E9A1-501E-4B72-9FAF-CC6ADC8CBFAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
@@ -2735,326 +2773,326 @@
     <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>141</v>
-      </c>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>144</v>
       </c>
       <c r="D2" s="37">
         <v>874</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="36" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="B4" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D4" s="37" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="E4" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="36" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="B5" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>151</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>154</v>
       </c>
       <c r="D5" s="37">
         <v>1</v>
       </c>
       <c r="E5" s="38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="36" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="B6" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="E6" s="38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="B7" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="36" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="B8" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D8" s="37" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="36" t="s">
+      <c r="B9" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D9" s="37" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="36" t="s">
+      <c r="B10" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D10" s="37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="36" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="B11" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="B12" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>176</v>
       </c>
       <c r="D12" s="37">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B13" s="36" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="B14" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="C14" s="39" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="D14" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="E14" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="B15" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="C15" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="D15" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="36" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="B16" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="B17" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="36" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="B18" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="36" t="s">
+      <c r="C18" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="C17" s="36" t="s">
+      <c r="D19" s="37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>191</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="D20" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="37" t="s">
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="36" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="B21" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="37" t="s">
+      <c r="C21" s="36" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="D21" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="B21" s="36" t="s">
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="B22" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D22" s="37" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3063,5 +3101,6 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>